--- a/excel/scores.xlsx
+++ b/excel/scores.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="190" yWindow="490" windowWidth="18880" windowHeight="6740"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -70,22 +73,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -95,46 +105,39 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -324,20 +327,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -357,7 +363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -365,20 +371,20 @@
         <v>7</v>
       </c>
       <c r="C2" s="3">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="D2" s="3">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="E2" s="3">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="F2" s="4">
-        <f t="shared" ref="F2:F10" si="1">AVERAGE(C2:E2)</f>
+        <f t="shared" ref="F2:F10" si="0">AVERAGE(C2:E2)</f>
         <v>90</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -386,20 +392,20 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="D3" s="3">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="E3" s="3">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -407,20 +413,20 @@
         <v>11</v>
       </c>
       <c r="C4" s="3">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="E4" s="3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -428,20 +434,20 @@
         <v>7</v>
       </c>
       <c r="C5" s="3">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="D5" s="3">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="E5" s="3">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -449,20 +455,20 @@
         <v>9</v>
       </c>
       <c r="C6" s="3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="D6" s="3">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="E6" s="3">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -470,20 +476,20 @@
         <v>11</v>
       </c>
       <c r="C7" s="3">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="D7" s="3">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="E7" s="3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -491,20 +497,20 @@
         <v>7</v>
       </c>
       <c r="C8" s="3">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="D8" s="3">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="E8" s="3">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -512,20 +518,20 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="D9" s="3">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -533,20 +539,20 @@
         <v>11</v>
       </c>
       <c r="C10" s="3">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="D10" s="3">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="E10" s="3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>